--- a/majorUserViews.xlsx
+++ b/majorUserViews.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
   <si>
     <t xml:space="preserve">Major User Views</t>
   </si>
@@ -40,15 +40,15 @@
     <t xml:space="preserve">City</t>
   </si>
   <si>
-    <t xml:space="preserve">CityID</t>
+    <t xml:space="preserve">StateName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">CityName</t>
   </si>
   <si>
-    <t xml:space="preserve">StateName</t>
-  </si>
-  <si>
     <t xml:space="preserve">University</t>
   </si>
   <si>
@@ -61,10 +61,55 @@
     <t xml:space="preserve">Campus</t>
   </si>
   <si>
-    <t xml:space="preserve">CampusID</t>
-  </si>
-  <si>
     <t xml:space="preserve">CampusName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SoilType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProfessorID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProfessorName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OfficeNo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClassID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClassName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClassTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StudentID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StudentName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SemesterNo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReactionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ElectricalOutput</t>
   </si>
 </sst>
 </file>
@@ -74,11 +119,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -100,6 +146,13 @@
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -118,6 +171,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -144,17 +232,57 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -174,84 +302,370 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/majorUserViews.xlsx
+++ b/majorUserViews.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="35">
   <si>
     <t xml:space="preserve">Data</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t xml:space="preserve">ReactionType</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">ElectricalOutput</t>
@@ -482,17 +479,17 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.36"/>
   </cols>
   <sheetData>
@@ -546,8 +543,12 @@
       <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="H3" s="14" t="s">
         <v>8</v>
       </c>
@@ -562,8 +563,12 @@
       <c r="E4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
@@ -588,8 +593,12 @@
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="H6" s="14" t="s">
         <v>8</v>
       </c>
@@ -604,8 +613,12 @@
       <c r="E7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20"/>
+      <c r="F7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>8</v>
+      </c>
       <c r="H7" s="21" t="s">
         <v>8</v>
       </c>
@@ -622,8 +635,12 @@
       <c r="E8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="H8" s="14" t="s">
         <v>8</v>
       </c>
@@ -803,7 +820,9 @@
       <c r="F19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="H19" s="14" t="s">
         <v>8</v>
       </c>
@@ -821,7 +840,9 @@
       <c r="F20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="H20" s="19" t="s">
         <v>8</v>
       </c>
@@ -839,7 +860,9 @@
       <c r="F21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="16"/>
+      <c r="G21" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="H21" s="19" t="s">
         <v>8</v>
       </c>
@@ -866,8 +889,12 @@
       <c r="E23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="11"/>
+      <c r="F23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="H23" s="14" t="s">
         <v>8</v>
       </c>
@@ -884,8 +911,12 @@
       <c r="E24" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="16"/>
+      <c r="F24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="H24" s="19" t="s">
         <v>8</v>
       </c>
@@ -902,8 +933,12 @@
       <c r="E25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="16"/>
+      <c r="F25" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="H25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,7 +966,9 @@
       <c r="F27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="H27" s="14" t="s">
         <v>8</v>
       </c>
@@ -949,7 +986,9 @@
       <c r="F28" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="H28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -980,7 +1019,7 @@
         <v>8</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>8</v>
@@ -989,7 +1028,7 @@
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="23"/>
       <c r="B31" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>8</v>
@@ -1002,7 +1041,7 @@
         <v>8</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>8</v>
@@ -1011,7 +1050,7 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="23"/>
       <c r="B32" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
